--- a/demo_dataset/05-images_analysis/demoplate_01--ij--analysis/FIS_summary_60min.xlsx
+++ b/demo_dataset/05-images_analysis/demoplate_01--ij--analysis/FIS_summary_60min.xlsx
@@ -3,157 +3,157 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <workbookPr date1904="false"/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="13125" windowHeight="6105" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="AUC" r:id="rId3" sheetId="1"/>
-    <sheet name="initial_swelling_rate" r:id="rId4" sheetId="2"/>
-    <sheet name="AtA0" r:id="rId5" sheetId="3"/>
+    <sheet name="AUC" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="initial_swelling_rate" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="AtA0" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="43">
-  <si>
-    <t>treatment</t>
-  </si>
-  <si>
-    <t>compound</t>
-  </si>
-  <si>
-    <t>concentration</t>
-  </si>
-  <si>
-    <t>mean</t>
-  </si>
-  <si>
-    <t>sd</t>
-  </si>
-  <si>
-    <t>n</t>
-  </si>
-  <si>
-    <t>SEM</t>
-  </si>
-  <si>
-    <t>fsk_0.008</t>
-  </si>
-  <si>
-    <t>fsk_0.02</t>
-  </si>
-  <si>
-    <t>fsk_0.05</t>
-  </si>
-  <si>
-    <t>fsk_0.128</t>
-  </si>
-  <si>
-    <t>fsk_0.32</t>
-  </si>
-  <si>
-    <t>fsk_0.8</t>
-  </si>
-  <si>
-    <t>fsk_2</t>
-  </si>
-  <si>
-    <t>fsk_5</t>
-  </si>
-  <si>
-    <t>fsk_770_0.008</t>
-  </si>
-  <si>
-    <t>fsk_770_0.02</t>
-  </si>
-  <si>
-    <t>fsk_770_0.05</t>
-  </si>
-  <si>
-    <t>fsk_770_0.128</t>
-  </si>
-  <si>
-    <t>fsk_770_0.32</t>
-  </si>
-  <si>
-    <t>fsk_770_0.8</t>
-  </si>
-  <si>
-    <t>fsk_770_2</t>
-  </si>
-  <si>
-    <t>fsk_770_5</t>
-  </si>
-  <si>
-    <t>fsk_770_809_0.008</t>
-  </si>
-  <si>
-    <t>fsk_770_809_0.02</t>
-  </si>
-  <si>
-    <t>fsk_770_809_0.05</t>
-  </si>
-  <si>
-    <t>fsk_770_809_0.128</t>
-  </si>
-  <si>
-    <t>fsk_770_809_0.32</t>
-  </si>
-  <si>
-    <t>fsk_770_809_0.8</t>
-  </si>
-  <si>
-    <t>fsk_770_809_2</t>
-  </si>
-  <si>
-    <t>fsk_770_809_5</t>
-  </si>
-  <si>
-    <t>fsk_809_0.008</t>
-  </si>
-  <si>
-    <t>fsk_809_0.02</t>
-  </si>
-  <si>
-    <t>fsk_809_0.05</t>
-  </si>
-  <si>
-    <t>fsk_809_0.128</t>
-  </si>
-  <si>
-    <t>fsk_809_0.32</t>
-  </si>
-  <si>
-    <t>fsk_809_0.8</t>
-  </si>
-  <si>
-    <t>fsk_809_2</t>
-  </si>
-  <si>
-    <t>fsk_809_5</t>
-  </si>
-  <si>
-    <t>fsk</t>
-  </si>
-  <si>
-    <t>fsk_770</t>
-  </si>
-  <si>
-    <t>fsk_770_809</t>
-  </si>
-  <si>
-    <t>fsk_809</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="43">
+  <si>
+    <t xml:space="preserve">treatment</t>
+  </si>
+  <si>
+    <t xml:space="preserve">compound</t>
+  </si>
+  <si>
+    <t xml:space="preserve">concentration</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mean</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sd</t>
+  </si>
+  <si>
+    <t xml:space="preserve">n</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SEM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fsk_0.008</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fsk</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fsk_0.02</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fsk_0.05</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fsk_0.128</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fsk_0.32</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fsk_0.8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fsk_2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fsk_5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fsk_770_0.008</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fsk_770</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fsk_770_0.02</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fsk_770_0.05</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fsk_770_0.128</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fsk_770_0.32</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fsk_770_0.8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fsk_770_2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fsk_770_5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fsk_770_809_0.008</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fsk_770_809</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fsk_770_809_0.02</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fsk_770_809_0.05</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fsk_770_809_0.128</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fsk_770_809_0.32</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fsk_770_809_0.8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fsk_770_809_2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fsk_770_809_5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fsk_809_0.008</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fsk_809</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fsk_809_0.02</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fsk_809_0.05</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fsk_809_0.128</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fsk_809_0.32</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fsk_809_0.8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fsk_809_2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fsk_809_5</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="0"/>
   <fonts count="1">
     <font>
-      <sz val="11.0"/>
-      <color indexed="8"/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -164,7 +164,7 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="darkGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
   </fills>
   <borders count="1">
@@ -182,16 +182,297 @@
   <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
+  <cellStyles count="1">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  </cellStyles>
+  <dxfs count="0"/>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="1F497D"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="EEECE1"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4F81BD"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="C0504D"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="9BBB59"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="8064A2"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="4BACC6"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="F79646"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0000FF"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="800080"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Cambria"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="35000">
+              <a:schemeClr val="phClr">
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:tint val="15000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="1"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:shade val="51000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="80000">
+              <a:schemeClr val="phClr">
+                <a:shade val="93000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="94000"/>
+                <a:satMod val="135000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:shade val="95000"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront">
+              <a:rot lat="0" lon="0" rev="0"/>
+            </a:camera>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT w="63500" h="25400"/>
+          </a:sp3d>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="40000">
+              <a:schemeClr val="phClr">
+                <a:tint val="45000"/>
+                <a:shade val="99000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="20000"/>
+                <a:satMod val="255000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+          </a:path>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="30000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+          </a:path>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0" tabSelected="true"/>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="1"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
@@ -221,226 +502,226 @@
         <v>7</v>
       </c>
       <c r="B2" t="s">
-        <v>39</v>
+        <v>8</v>
       </c>
       <c r="C2" t="n">
         <v>0.008</v>
       </c>
       <c r="D2" t="n">
-        <v>-14.551366910448422</v>
+        <v>-14.5513669104484</v>
       </c>
       <c r="E2" t="n">
-        <v>68.72750454937318</v>
+        <v>68.7275045493732</v>
       </c>
       <c r="F2" t="n">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="G2" t="n">
-        <v>48.597684520891065</v>
+        <v>48.5976845208911</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" t="s">
         <v>8</v>
-      </c>
-      <c r="B3" t="s">
-        <v>39</v>
       </c>
       <c r="C3" t="n">
         <v>0.02</v>
       </c>
       <c r="D3" t="n">
-        <v>22.94781606398093</v>
+        <v>22.9478160639809</v>
       </c>
       <c r="E3" t="n">
-        <v>38.08479277673634</v>
+        <v>38.0847927767363</v>
       </c>
       <c r="F3" t="n">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="G3" t="n">
-        <v>26.93001523251471</v>
+        <v>26.9300152325147</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B4" t="s">
-        <v>39</v>
+        <v>8</v>
       </c>
       <c r="C4" t="n">
         <v>0.05</v>
       </c>
       <c r="D4" t="n">
-        <v>-38.10645562021655</v>
+        <v>-38.1064556202166</v>
       </c>
       <c r="E4" t="n">
-        <v>14.252026644983683</v>
+        <v>14.2520266449837</v>
       </c>
       <c r="F4" t="n">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="G4" t="n">
-        <v>10.077704686319322</v>
+        <v>10.0777046863193</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B5" t="s">
-        <v>39</v>
+        <v>8</v>
       </c>
       <c r="C5" t="n">
         <v>0.128</v>
       </c>
       <c r="D5" t="n">
-        <v>-84.04112593020929</v>
+        <v>-84.0411259302093</v>
       </c>
       <c r="E5" t="n">
-        <v>0.3400623333076084</v>
+        <v>0.340062333307608</v>
       </c>
       <c r="F5" t="n">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="G5" t="n">
-        <v>0.24046038190792982</v>
+        <v>0.24046038190793</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B6" t="s">
-        <v>39</v>
+        <v>8</v>
       </c>
       <c r="C6" t="n">
         <v>0.32</v>
       </c>
       <c r="D6" t="n">
-        <v>-24.698149337143356</v>
+        <v>-24.6981493371434</v>
       </c>
       <c r="E6" t="n">
-        <v>15.245185012652065</v>
+        <v>15.2451850126521</v>
       </c>
       <c r="F6" t="n">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="G6" t="n">
-        <v>10.779973702889796</v>
+        <v>10.7799737028898</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B7" t="s">
-        <v>39</v>
+        <v>8</v>
       </c>
       <c r="C7" t="n">
         <v>0.8</v>
       </c>
       <c r="D7" t="n">
-        <v>-48.60942796526519</v>
+        <v>-48.6094279652652</v>
       </c>
       <c r="E7" t="n">
-        <v>19.19012812786974</v>
+        <v>19.1901281278697</v>
       </c>
       <c r="F7" t="n">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="G7" t="n">
-        <v>13.569469731055399</v>
+        <v>13.5694697310554</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B8" t="s">
-        <v>39</v>
+        <v>8</v>
       </c>
       <c r="C8" t="n">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="D8" t="n">
-        <v>-10.83515756284335</v>
+        <v>-10.8351575628433</v>
       </c>
       <c r="E8" t="n">
-        <v>20.23208483621406</v>
+        <v>20.2320848362141</v>
       </c>
       <c r="F8" t="n">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="G8" t="n">
-        <v>14.306244385228482</v>
+        <v>14.3062443852285</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B9" t="s">
-        <v>39</v>
+        <v>8</v>
       </c>
       <c r="C9" t="n">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="D9" t="n">
-        <v>33.563247809274195</v>
+        <v>33.5632478092742</v>
       </c>
       <c r="E9" t="n">
-        <v>55.63315817984726</v>
+        <v>55.6331581798473</v>
       </c>
       <c r="F9" t="n">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="G9" t="n">
-        <v>39.33858340779384</v>
+        <v>39.3385834077938</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B10" t="s">
-        <v>40</v>
+        <v>17</v>
       </c>
       <c r="C10" t="n">
         <v>0.008</v>
       </c>
       <c r="D10" t="n">
-        <v>-44.71644578431867</v>
+        <v>-44.7164457843187</v>
       </c>
       <c r="E10" t="n">
-        <v>6.450286621299356</v>
+        <v>6.45028662129936</v>
       </c>
       <c r="F10" t="n">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="G10" t="n">
-        <v>4.561041410517639</v>
+        <v>4.56104141051764</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B11" t="s">
-        <v>40</v>
+        <v>17</v>
       </c>
       <c r="C11" t="n">
         <v>0.02</v>
       </c>
       <c r="D11" t="n">
-        <v>-25.544098092677352</v>
+        <v>-25.5440980926774</v>
       </c>
       <c r="E11" t="n">
-        <v>42.61798715523055</v>
+        <v>42.6179871552306</v>
       </c>
       <c r="F11" t="n">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="G11" t="n">
         <v>30.1354677179847</v>
@@ -448,68 +729,68 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
+        <v>19</v>
+      </c>
+      <c r="B12" t="s">
         <v>17</v>
-      </c>
-      <c r="B12" t="s">
-        <v>40</v>
       </c>
       <c r="C12" t="n">
         <v>0.05</v>
       </c>
       <c r="D12" t="n">
-        <v>-49.76269742945952</v>
+        <v>-49.7626974294595</v>
       </c>
       <c r="E12" t="n">
-        <v>30.28922977134838</v>
+        <v>30.2892297713484</v>
       </c>
       <c r="F12" t="n">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="G12" t="n">
-        <v>21.417719768237898</v>
+        <v>21.4177197682379</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B13" t="s">
-        <v>40</v>
+        <v>17</v>
       </c>
       <c r="C13" t="n">
         <v>0.128</v>
       </c>
       <c r="D13" t="n">
-        <v>-94.96897033783227</v>
+        <v>-94.9689703378323</v>
       </c>
       <c r="E13" t="n">
-        <v>55.24772168439171</v>
+        <v>55.2477216843917</v>
       </c>
       <c r="F13" t="n">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="G13" t="n">
-        <v>39.06603864814045</v>
+        <v>39.0660386481404</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B14" t="s">
-        <v>40</v>
+        <v>17</v>
       </c>
       <c r="C14" t="n">
         <v>0.32</v>
       </c>
       <c r="D14" t="n">
-        <v>40.289189032968515</v>
+        <v>40.2891890329685</v>
       </c>
       <c r="E14" t="n">
-        <v>9.839473354725673</v>
+        <v>9.83947335472567</v>
       </c>
       <c r="F14" t="n">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="G14" t="n">
         <v>6.95755833243087</v>
@@ -517,45 +798,45 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>40</v>
+        <v>17</v>
       </c>
       <c r="C15" t="n">
         <v>0.8</v>
       </c>
       <c r="D15" t="n">
-        <v>196.13616703427408</v>
+        <v>196.136167034274</v>
       </c>
       <c r="E15" t="n">
-        <v>43.686856746845955</v>
+        <v>43.686856746846</v>
       </c>
       <c r="F15" t="n">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="G15" t="n">
-        <v>30.891272654420046</v>
+        <v>30.89127265442</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B16" t="s">
-        <v>40</v>
+        <v>17</v>
       </c>
       <c r="C16" t="n">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="D16" t="n">
-        <v>254.75879896298738</v>
+        <v>254.758798962987</v>
       </c>
       <c r="E16" t="n">
-        <v>67.96661291310824</v>
+        <v>67.9666129131082</v>
       </c>
       <c r="F16" t="n">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="G16" t="n">
         <v>48.05965288514</v>
@@ -563,56 +844,56 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B17" t="s">
-        <v>40</v>
+        <v>17</v>
       </c>
       <c r="C17" t="n">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="D17" t="n">
-        <v>390.5158271557738</v>
+        <v>390.515827155774</v>
       </c>
       <c r="E17" t="n">
-        <v>1.799837207622024</v>
+        <v>1.79983720762202</v>
       </c>
       <c r="F17" t="n">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="G17" t="n">
-        <v>1.272677094541393</v>
+        <v>1.27267709454139</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B18" t="s">
-        <v>41</v>
+        <v>26</v>
       </c>
       <c r="C18" t="n">
         <v>0.008</v>
       </c>
       <c r="D18" t="n">
-        <v>-4.004307394452589</v>
+        <v>-4.00430739445259</v>
       </c>
       <c r="E18" t="n">
-        <v>31.16776495504264</v>
+        <v>31.1677649550426</v>
       </c>
       <c r="F18" t="n">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="G18" t="n">
-        <v>22.03893795413908</v>
+        <v>22.0389379541391</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B19" t="s">
-        <v>41</v>
+        <v>26</v>
       </c>
       <c r="C19" t="n">
         <v>0.02</v>
@@ -621,21 +902,21 @@
         <v>-74.6302616152114</v>
       </c>
       <c r="E19" t="n">
-        <v>32.16672218465759</v>
+        <v>32.1667221846576</v>
       </c>
       <c r="F19" t="n">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="G19" t="n">
-        <v>22.745307385315133</v>
+        <v>22.7453073853151</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B20" t="s">
-        <v>41</v>
+        <v>26</v>
       </c>
       <c r="C20" t="n">
         <v>0.05</v>
@@ -644,217 +925,217 @@
         <v>89.7333480876083</v>
       </c>
       <c r="E20" t="n">
-        <v>61.400491974639095</v>
+        <v>61.4004919746391</v>
       </c>
       <c r="F20" t="n">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="G20" t="n">
-        <v>43.41670424345749</v>
+        <v>43.4167042434575</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
+        <v>29</v>
+      </c>
+      <c r="B21" t="s">
         <v>26</v>
-      </c>
-      <c r="B21" t="s">
-        <v>41</v>
       </c>
       <c r="C21" t="n">
         <v>0.128</v>
       </c>
       <c r="D21" t="n">
-        <v>379.10349472406693</v>
+        <v>379.103494724067</v>
       </c>
       <c r="E21" t="n">
-        <v>231.86844099922956</v>
+        <v>231.86844099923</v>
       </c>
       <c r="F21" t="n">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="G21" t="n">
-        <v>163.9557469737081</v>
+        <v>163.955746973708</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B22" t="s">
-        <v>41</v>
+        <v>26</v>
       </c>
       <c r="C22" t="n">
         <v>0.32</v>
       </c>
       <c r="D22" t="n">
-        <v>1122.947227451052</v>
+        <v>1122.94722745105</v>
       </c>
       <c r="E22" t="n">
-        <v>77.37331088709993</v>
+        <v>77.3733108870999</v>
       </c>
       <c r="F22" t="n">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="G22" t="n">
-        <v>54.71119281112328</v>
+        <v>54.7111928111233</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B23" t="s">
-        <v>41</v>
+        <v>26</v>
       </c>
       <c r="C23" t="n">
         <v>0.8</v>
       </c>
       <c r="D23" t="n">
-        <v>1963.721111172404</v>
+        <v>1963.7211111724</v>
       </c>
       <c r="E23" t="n">
-        <v>60.825337698454526</v>
+        <v>60.8253376984545</v>
       </c>
       <c r="F23" t="n">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="G23" t="n">
-        <v>43.010008754538944</v>
+        <v>43.0100087545389</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B24" t="s">
-        <v>41</v>
+        <v>26</v>
       </c>
       <c r="C24" t="n">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="D24" t="n">
-        <v>2212.824492544433</v>
+        <v>2212.82449254443</v>
       </c>
       <c r="E24" t="n">
-        <v>323.3721439384198</v>
+        <v>323.37214393842</v>
       </c>
       <c r="F24" t="n">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="G24" t="n">
-        <v>228.65863582568895</v>
+        <v>228.658635825689</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B25" t="s">
-        <v>41</v>
+        <v>26</v>
       </c>
       <c r="C25" t="n">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="D25" t="n">
-        <v>2645.4415182111784</v>
+        <v>2645.44151821118</v>
       </c>
       <c r="E25" t="n">
-        <v>139.45266612724865</v>
+        <v>139.452666127249</v>
       </c>
       <c r="F25" t="n">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="G25" t="n">
-        <v>98.60792587312108</v>
+        <v>98.6079258731211</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B26" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="C26" t="n">
         <v>0.008</v>
       </c>
       <c r="D26" t="n">
-        <v>-0.41904471283640277</v>
+        <v>-0.419044712836403</v>
       </c>
       <c r="E26" t="n">
         <v>47.8779420875666</v>
       </c>
       <c r="F26" t="n">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="G26" t="n">
-        <v>33.854817519375146</v>
+        <v>33.8548175193751</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="B27" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="C27" t="n">
         <v>0.02</v>
       </c>
       <c r="D27" t="n">
-        <v>32.71379647171354</v>
+        <v>32.7137964717135</v>
       </c>
       <c r="E27" t="n">
-        <v>1.5270358716248151</v>
+        <v>1.52703587162482</v>
       </c>
       <c r="F27" t="n">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="G27" t="n">
-        <v>1.079777419941017</v>
+        <v>1.07977741994102</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="B28" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="C28" t="n">
         <v>0.05</v>
       </c>
       <c r="D28" t="n">
-        <v>-21.918523503067853</v>
+        <v>-21.9185235030679</v>
       </c>
       <c r="E28" t="n">
-        <v>15.44924750538583</v>
+        <v>15.4492475053858</v>
       </c>
       <c r="F28" t="n">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="G28" t="n">
-        <v>10.924267675287673</v>
+        <v>10.9242676752877</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="B29" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="C29" t="n">
         <v>0.128</v>
       </c>
       <c r="D29" t="n">
-        <v>-47.15879716757161</v>
+        <v>-47.1587971675716</v>
       </c>
       <c r="E29" t="n">
-        <v>13.475248736413146</v>
+        <v>13.4752487364131</v>
       </c>
       <c r="F29" t="n">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="G29" t="n">
         <v>9.52843975969319</v>
@@ -862,45 +1143,45 @@
     </row>
     <row r="30">
       <c r="A30" t="s">
+        <v>39</v>
+      </c>
+      <c r="B30" t="s">
         <v>35</v>
-      </c>
-      <c r="B30" t="s">
-        <v>42</v>
       </c>
       <c r="C30" t="n">
         <v>0.32</v>
       </c>
       <c r="D30" t="n">
-        <v>-23.636368154625274</v>
+        <v>-23.6363681546253</v>
       </c>
       <c r="E30" t="n">
-        <v>3.655261126944326</v>
+        <v>3.65526112694433</v>
       </c>
       <c r="F30" t="n">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="G30" t="n">
-        <v>2.5846599298699147</v>
+        <v>2.58465992986991</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="B31" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="C31" t="n">
         <v>0.8</v>
       </c>
       <c r="D31" t="n">
-        <v>97.86548867236384</v>
+        <v>97.8654886723638</v>
       </c>
       <c r="E31" t="n">
-        <v>31.26202590241395</v>
+        <v>31.2620259024139</v>
       </c>
       <c r="F31" t="n">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="G31" t="n">
         <v>22.1055905092264</v>
@@ -908,62 +1189,63 @@
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="B32" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="C32" t="n">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="D32" t="n">
-        <v>491.27473892277567</v>
+        <v>491.274738922776</v>
       </c>
       <c r="E32" t="n">
-        <v>79.04653598075889</v>
+        <v>79.0465359807589</v>
       </c>
       <c r="F32" t="n">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="G32" t="n">
-        <v>55.89434162130103</v>
+        <v>55.894341621301</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="B33" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="C33" t="n">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="D33" t="n">
-        <v>997.0351643457035</v>
+        <v>997.035164345703</v>
       </c>
       <c r="E33" t="n">
-        <v>84.73227712181746</v>
+        <v>84.7322771218175</v>
       </c>
       <c r="F33" t="n">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="G33" t="n">
-        <v>59.914767738214884</v>
+        <v>59.9147677382149</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
@@ -993,306 +1275,306 @@
         <v>7</v>
       </c>
       <c r="B2" t="s">
-        <v>39</v>
+        <v>8</v>
       </c>
       <c r="C2" t="n">
         <v>0.008</v>
       </c>
       <c r="D2" t="n">
-        <v>-0.014202330109239244</v>
+        <v>-0.0142023301092392</v>
       </c>
       <c r="E2" t="n">
-        <v>0.019606494532102205</v>
+        <v>0.0196064945321022</v>
       </c>
       <c r="F2" t="n">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="G2" t="n">
-        <v>0.013863885238946433</v>
+        <v>0.0138638852389464</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" t="s">
         <v>8</v>
-      </c>
-      <c r="B3" t="s">
-        <v>39</v>
       </c>
       <c r="C3" t="n">
         <v>0.02</v>
       </c>
       <c r="D3" t="n">
-        <v>-0.01915905600836318</v>
+        <v>-0.0191590560083632</v>
       </c>
       <c r="E3" t="n">
-        <v>0.001594403806908918</v>
+        <v>0.00159440380690892</v>
       </c>
       <c r="F3" t="n">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="G3" t="n">
-        <v>0.0011274137438149427</v>
+        <v>0.00112741374381494</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B4" t="s">
-        <v>39</v>
+        <v>8</v>
       </c>
       <c r="C4" t="n">
         <v>0.05</v>
       </c>
       <c r="D4" t="n">
-        <v>-0.049062328648736137</v>
+        <v>-0.0490623286487361</v>
       </c>
       <c r="E4" t="n">
-        <v>0.02599297815084713</v>
+        <v>0.0259929781508471</v>
       </c>
       <c r="F4" t="n">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="G4" t="n">
-        <v>0.01837981111369777</v>
+        <v>0.0183798111136978</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B5" t="s">
-        <v>39</v>
+        <v>8</v>
       </c>
       <c r="C5" t="n">
         <v>0.128</v>
       </c>
       <c r="D5" t="n">
-        <v>-0.03301817143666778</v>
+        <v>-0.0330181714366678</v>
       </c>
       <c r="E5" t="n">
-        <v>0.010501961256622918</v>
+        <v>0.0105019612566229</v>
       </c>
       <c r="F5" t="n">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="G5" t="n">
-        <v>0.007426008020316461</v>
+        <v>0.00742600802031646</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B6" t="s">
-        <v>39</v>
+        <v>8</v>
       </c>
       <c r="C6" t="n">
         <v>0.32</v>
       </c>
       <c r="D6" t="n">
-        <v>-0.005160112754565348</v>
+        <v>-0.00516011275456535</v>
       </c>
       <c r="E6" t="n">
-        <v>0.017690106862502778</v>
+        <v>0.0176901068625028</v>
       </c>
       <c r="F6" t="n">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="G6" t="n">
-        <v>0.012508794522390393</v>
+        <v>0.0125087945223904</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B7" t="s">
-        <v>39</v>
+        <v>8</v>
       </c>
       <c r="C7" t="n">
         <v>0.8</v>
       </c>
       <c r="D7" t="n">
-        <v>-0.0015576469577632613</v>
+        <v>-0.00155764695776326</v>
       </c>
       <c r="E7" t="n">
-        <v>0.018174823152857206</v>
+        <v>0.0181748231528572</v>
       </c>
       <c r="F7" t="n">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="G7" t="n">
-        <v>0.012851540698251597</v>
+        <v>0.0128515406982516</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B8" t="s">
-        <v>39</v>
+        <v>8</v>
       </c>
       <c r="C8" t="n">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="D8" t="n">
-        <v>0.027171621366889658</v>
+        <v>0.0271716213668897</v>
       </c>
       <c r="E8" t="n">
-        <v>0.021142587659340864</v>
+        <v>0.0211425876593409</v>
       </c>
       <c r="F8" t="n">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="G8" t="n">
-        <v>0.01495006710575094</v>
+        <v>0.0149500671057509</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B9" t="s">
-        <v>39</v>
+        <v>8</v>
       </c>
       <c r="C9" t="n">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="D9" t="n">
         <v>0.0772641664919473</v>
       </c>
       <c r="E9" t="n">
-        <v>0.02881758332428842</v>
+        <v>0.0288175833242884</v>
       </c>
       <c r="F9" t="n">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="G9" t="n">
-        <v>0.020377108586012712</v>
+        <v>0.0203771085860127</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B10" t="s">
-        <v>40</v>
+        <v>17</v>
       </c>
       <c r="C10" t="n">
         <v>0.008</v>
       </c>
       <c r="D10" t="n">
-        <v>-0.05173863003336445</v>
+        <v>-0.0517386300333645</v>
       </c>
       <c r="E10" t="n">
-        <v>7.572783739009492E-4</v>
+        <v>0.000757278373900949</v>
       </c>
       <c r="F10" t="n">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="G10" t="n">
-        <v>5.35476673431283E-4</v>
+        <v>0.000535476673431283</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B11" t="s">
-        <v>40</v>
+        <v>17</v>
       </c>
       <c r="C11" t="n">
         <v>0.02</v>
       </c>
       <c r="D11" t="n">
-        <v>-0.024956590309576344</v>
+        <v>-0.0249565903095763</v>
       </c>
       <c r="E11" t="n">
-        <v>0.016687873233443604</v>
+        <v>0.0166878732334436</v>
       </c>
       <c r="F11" t="n">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="G11" t="n">
-        <v>0.011800108326949449</v>
+        <v>0.0118001083269494</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
+        <v>19</v>
+      </c>
+      <c r="B12" t="s">
         <v>17</v>
-      </c>
-      <c r="B12" t="s">
-        <v>40</v>
       </c>
       <c r="C12" t="n">
         <v>0.05</v>
       </c>
       <c r="D12" t="n">
-        <v>-0.033541309764050654</v>
+        <v>-0.0335413097640507</v>
       </c>
       <c r="E12" t="n">
-        <v>0.004795817036469065</v>
+        <v>0.00479581703646906</v>
       </c>
       <c r="F12" t="n">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="G12" t="n">
-        <v>0.0033911547478172473</v>
+        <v>0.00339115474781725</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B13" t="s">
-        <v>40</v>
+        <v>17</v>
       </c>
       <c r="C13" t="n">
         <v>0.128</v>
       </c>
       <c r="D13" t="n">
-        <v>-0.04404179807595682</v>
+        <v>-0.0440417980759568</v>
       </c>
       <c r="E13" t="n">
-        <v>0.023355938228214138</v>
+        <v>0.0233559382282141</v>
       </c>
       <c r="F13" t="n">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="G13" t="n">
-        <v>0.016515142302144334</v>
+        <v>0.0165151423021443</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B14" t="s">
-        <v>40</v>
+        <v>17</v>
       </c>
       <c r="C14" t="n">
         <v>0.32</v>
       </c>
       <c r="D14" t="n">
-        <v>0.07789810219971205</v>
+        <v>0.077898102199712</v>
       </c>
       <c r="E14" t="n">
-        <v>8.329787691162109E-4</v>
+        <v>0.000832978769116211</v>
       </c>
       <c r="F14" t="n">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="G14" t="n">
-        <v>5.890049362264961E-4</v>
+        <v>0.000589004936226496</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>40</v>
+        <v>17</v>
       </c>
       <c r="C15" t="n">
         <v>0.8</v>
@@ -1301,136 +1583,136 @@
         <v>0.222567279480806</v>
       </c>
       <c r="E15" t="n">
-        <v>0.04267997126759469</v>
+        <v>0.0426799712675947</v>
       </c>
       <c r="F15" t="n">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="G15" t="n">
-        <v>0.03017929710416321</v>
+        <v>0.0301792971041632</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B16" t="s">
-        <v>40</v>
+        <v>17</v>
       </c>
       <c r="C16" t="n">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="D16" t="n">
-        <v>0.3538533460094931</v>
+        <v>0.353853346009493</v>
       </c>
       <c r="E16" t="n">
-        <v>0.054066028685326166</v>
+        <v>0.0540660286853262</v>
       </c>
       <c r="F16" t="n">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="G16" t="n">
-        <v>0.03823045551522053</v>
+        <v>0.0382304555152205</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B17" t="s">
-        <v>40</v>
+        <v>17</v>
       </c>
       <c r="C17" t="n">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="D17" t="n">
-        <v>0.37388327246571196</v>
+        <v>0.373883272465712</v>
       </c>
       <c r="E17" t="n">
-        <v>0.04292659455735593</v>
+        <v>0.0429265945573559</v>
       </c>
       <c r="F17" t="n">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="G17" t="n">
-        <v>0.03035368610475192</v>
+        <v>0.0303536861047519</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B18" t="s">
-        <v>41</v>
+        <v>26</v>
       </c>
       <c r="C18" t="n">
         <v>0.008</v>
       </c>
       <c r="D18" t="n">
-        <v>-0.026214043452694985</v>
+        <v>-0.026214043452695</v>
       </c>
       <c r="E18" t="n">
-        <v>0.008269555405658647</v>
+        <v>0.00826955540565865</v>
       </c>
       <c r="F18" t="n">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="G18" t="n">
-        <v>0.005847458704739099</v>
+        <v>0.0058474587047391</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B19" t="s">
-        <v>41</v>
+        <v>26</v>
       </c>
       <c r="C19" t="n">
         <v>0.02</v>
       </c>
       <c r="D19" t="n">
-        <v>-0.04116264745600853</v>
+        <v>-0.0411626474560085</v>
       </c>
       <c r="E19" t="n">
-        <v>0.02798270588950172</v>
+        <v>0.0279827058895017</v>
       </c>
       <c r="F19" t="n">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="G19" t="n">
-        <v>0.019786761090415404</v>
+        <v>0.0197867610904154</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B20" t="s">
-        <v>41</v>
+        <v>26</v>
       </c>
       <c r="C20" t="n">
         <v>0.05</v>
       </c>
       <c r="D20" t="n">
-        <v>0.06443904291992104</v>
+        <v>0.064439042919921</v>
       </c>
       <c r="E20" t="n">
-        <v>0.06539052942749034</v>
+        <v>0.0653905294274903</v>
       </c>
       <c r="F20" t="n">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="G20" t="n">
-        <v>0.046238086783556905</v>
+        <v>0.0462380867835569</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
+        <v>29</v>
+      </c>
+      <c r="B21" t="s">
         <v>26</v>
-      </c>
-      <c r="B21" t="s">
-        <v>41</v>
       </c>
       <c r="C21" t="n">
         <v>0.128</v>
@@ -1442,300 +1724,301 @@
         <v>0.147226239184558</v>
       </c>
       <c r="F21" t="n">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="G21" t="n">
-        <v>0.10410467209599354</v>
+        <v>0.104104672095994</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B22" t="s">
-        <v>41</v>
+        <v>26</v>
       </c>
       <c r="C22" t="n">
         <v>0.32</v>
       </c>
       <c r="D22" t="n">
-        <v>1.0839237121358725</v>
+        <v>1.08392371213587</v>
       </c>
       <c r="E22" t="n">
-        <v>0.1068869000961468</v>
+        <v>0.106886900096147</v>
       </c>
       <c r="F22" t="n">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="G22" t="n">
-        <v>0.07558045187799443</v>
+        <v>0.0755804518779944</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B23" t="s">
-        <v>41</v>
+        <v>26</v>
       </c>
       <c r="C23" t="n">
         <v>0.8</v>
       </c>
       <c r="D23" t="n">
-        <v>1.861420195073436</v>
+        <v>1.86142019507344</v>
       </c>
       <c r="E23" t="n">
-        <v>0.09230686722646086</v>
+        <v>0.0923068672264609</v>
       </c>
       <c r="F23" t="n">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="G23" t="n">
-        <v>0.06527081176591676</v>
+        <v>0.0652708117659168</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B24" t="s">
-        <v>41</v>
+        <v>26</v>
       </c>
       <c r="C24" t="n">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="D24" t="n">
-        <v>1.9438626375647425</v>
+        <v>1.94386263756474</v>
       </c>
       <c r="E24" t="n">
-        <v>0.2524462513677769</v>
+        <v>0.252446251367777</v>
       </c>
       <c r="F24" t="n">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="G24" t="n">
-        <v>0.17850645622727876</v>
+        <v>0.178506456227279</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B25" t="s">
-        <v>41</v>
+        <v>26</v>
       </c>
       <c r="C25" t="n">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="D25" t="n">
         <v>2.12004718585945</v>
       </c>
       <c r="E25" t="n">
-        <v>0.08755340193786715</v>
+        <v>0.0875534019378671</v>
       </c>
       <c r="F25" t="n">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="G25" t="n">
-        <v>0.06190960422621727</v>
+        <v>0.0619096042262173</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B26" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="C26" t="n">
         <v>0.008</v>
       </c>
       <c r="D26" t="n">
-        <v>0.005427314878921492</v>
+        <v>0.00542731487892149</v>
       </c>
       <c r="E26" t="n">
-        <v>0.001541634237311924</v>
+        <v>0.00154163423731192</v>
       </c>
       <c r="F26" t="n">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="G26" t="n">
-        <v>0.0010901000233126128</v>
+        <v>0.00109010002331261</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="B27" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="C27" t="n">
         <v>0.02</v>
       </c>
       <c r="D27" t="n">
-        <v>0.004014495699749227</v>
+        <v>0.00401449569974923</v>
       </c>
       <c r="E27" t="n">
-        <v>0.010761592427463811</v>
+        <v>0.0107615924274638</v>
       </c>
       <c r="F27" t="n">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="G27" t="n">
-        <v>0.007609594981825459</v>
+        <v>0.00760959498182546</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="B28" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="C28" t="n">
         <v>0.05</v>
       </c>
       <c r="D28" t="n">
-        <v>-0.03013162129452106</v>
+        <v>-0.0301316212945211</v>
       </c>
       <c r="E28" t="n">
-        <v>0.002793682686980827</v>
+        <v>0.00279368268698083</v>
       </c>
       <c r="F28" t="n">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="G28" t="n">
-        <v>0.0019754319724475974</v>
+        <v>0.0019754319724476</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="B29" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="C29" t="n">
         <v>0.128</v>
       </c>
       <c r="D29" t="n">
-        <v>-0.011162982874543433</v>
+        <v>-0.0111629828745434</v>
       </c>
       <c r="E29" t="n">
-        <v>0.02187276879589577</v>
+        <v>0.0218727687958958</v>
       </c>
       <c r="F29" t="n">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="G29" t="n">
-        <v>0.015466383138903413</v>
+        <v>0.0154663831389034</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
+        <v>39</v>
+      </c>
+      <c r="B30" t="s">
         <v>35</v>
-      </c>
-      <c r="B30" t="s">
-        <v>42</v>
       </c>
       <c r="C30" t="n">
         <v>0.32</v>
       </c>
       <c r="D30" t="n">
-        <v>-0.0016774355567373625</v>
+        <v>-0.00167743555673736</v>
       </c>
       <c r="E30" t="n">
-        <v>0.004789476400501248</v>
+        <v>0.00478947640050125</v>
       </c>
       <c r="F30" t="n">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="G30" t="n">
-        <v>0.003386671241127369</v>
+        <v>0.00338667124112737</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="B31" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="C31" t="n">
         <v>0.8</v>
       </c>
       <c r="D31" t="n">
-        <v>0.12349201397497289</v>
+        <v>0.123492013974973</v>
       </c>
       <c r="E31" t="n">
-        <v>0.011227789284748636</v>
+        <v>0.0112277892847486</v>
       </c>
       <c r="F31" t="n">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="G31" t="n">
-        <v>0.007939245940979417</v>
+        <v>0.00793924594097942</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="B32" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="C32" t="n">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="D32" t="n">
-        <v>0.39628336098399763</v>
+        <v>0.396283360983998</v>
       </c>
       <c r="E32" t="n">
-        <v>0.03957451274954895</v>
+        <v>0.0395745127495489</v>
       </c>
       <c r="F32" t="n">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="G32" t="n">
-        <v>0.02798340632735954</v>
+        <v>0.0279834063273595</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="B33" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="C33" t="n">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="D33" t="n">
-        <v>0.6484951423855059</v>
+        <v>0.648495142385506</v>
       </c>
       <c r="E33" t="n">
-        <v>0.024591334229197088</v>
+        <v>0.0245913342291971</v>
       </c>
       <c r="F33" t="n">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="G33" t="n">
-        <v>0.01738869919189012</v>
+        <v>0.0173886991918901</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
@@ -1765,99 +2048,99 @@
         <v>7</v>
       </c>
       <c r="B2" t="s">
-        <v>39</v>
+        <v>8</v>
       </c>
       <c r="C2" t="n">
         <v>0.008</v>
       </c>
       <c r="D2" t="n">
-        <v>99.42298224775321</v>
+        <v>99.4229822477532</v>
       </c>
       <c r="E2" t="n">
-        <v>1.4860891618783927</v>
+        <v>1.48608916187839</v>
       </c>
       <c r="F2" t="n">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="G2" t="n">
-        <v>1.0508237238120444</v>
+        <v>1.05082372381204</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" t="s">
         <v>8</v>
-      </c>
-      <c r="B3" t="s">
-        <v>39</v>
       </c>
       <c r="C3" t="n">
         <v>0.02</v>
       </c>
       <c r="D3" t="n">
-        <v>100.21221806845318</v>
+        <v>100.212218068453</v>
       </c>
       <c r="E3" t="n">
-        <v>0.8597432299943222</v>
+        <v>0.859743229994322</v>
       </c>
       <c r="F3" t="n">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="G3" t="n">
-        <v>0.6079302680082107</v>
+        <v>0.607930268008211</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B4" t="s">
-        <v>39</v>
+        <v>8</v>
       </c>
       <c r="C4" t="n">
         <v>0.05</v>
       </c>
       <c r="D4" t="n">
-        <v>98.82605878694937</v>
+        <v>98.8260587869494</v>
       </c>
       <c r="E4" t="n">
-        <v>0.15516217775506155</v>
+        <v>0.155162177755062</v>
       </c>
       <c r="F4" t="n">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="G4" t="n">
-        <v>0.1097162280742765</v>
+        <v>0.109716228074277</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B5" t="s">
-        <v>39</v>
+        <v>8</v>
       </c>
       <c r="C5" t="n">
         <v>0.128</v>
       </c>
       <c r="D5" t="n">
-        <v>98.50602526616936</v>
+        <v>98.5060252661694</v>
       </c>
       <c r="E5" t="n">
-        <v>0.04904265408117837</v>
+        <v>0.0490426540811784</v>
       </c>
       <c r="F5" t="n">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="G5" t="n">
-        <v>0.03467839326818733</v>
+        <v>0.0346783932681873</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B6" t="s">
-        <v>39</v>
+        <v>8</v>
       </c>
       <c r="C6" t="n">
         <v>0.32</v>
@@ -1866,56 +2149,56 @@
         <v>99.8723036877152</v>
       </c>
       <c r="E6" t="n">
-        <v>0.15428679619526509</v>
+        <v>0.154286796195265</v>
       </c>
       <c r="F6" t="n">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="G6" t="n">
-        <v>0.10909723983721875</v>
+        <v>0.109097239837219</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B7" t="s">
-        <v>39</v>
+        <v>8</v>
       </c>
       <c r="C7" t="n">
         <v>0.8</v>
       </c>
       <c r="D7" t="n">
-        <v>99.60939172639559</v>
+        <v>99.6093917263956</v>
       </c>
       <c r="E7" t="n">
-        <v>0.5196413131738742</v>
+        <v>0.519641313173874</v>
       </c>
       <c r="F7" t="n">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="G7" t="n">
-        <v>0.36744189632992885</v>
+        <v>0.367441896329929</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B8" t="s">
-        <v>39</v>
+        <v>8</v>
       </c>
       <c r="C8" t="n">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="D8" t="n">
-        <v>100.62927840181608</v>
+        <v>100.629278401816</v>
       </c>
       <c r="E8" t="n">
-        <v>0.35660135297522466</v>
+        <v>0.356601352975225</v>
       </c>
       <c r="F8" t="n">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="G8" t="n">
         <v>0.252155234869079</v>
@@ -1923,33 +2206,33 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B9" t="s">
-        <v>39</v>
+        <v>8</v>
       </c>
       <c r="C9" t="n">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="D9" t="n">
-        <v>101.48660535624202</v>
+        <v>101.486605356242</v>
       </c>
       <c r="E9" t="n">
-        <v>1.4816423785254191</v>
+        <v>1.48164237852542</v>
       </c>
       <c r="F9" t="n">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="G9" t="n">
-        <v>1.0476793731486893</v>
+        <v>1.04767937314869</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B10" t="s">
-        <v>40</v>
+        <v>17</v>
       </c>
       <c r="C10" t="n">
         <v>0.008</v>
@@ -1958,545 +2241,546 @@
         <v>98.3382669907923</v>
       </c>
       <c r="E10" t="n">
-        <v>0.3810047394493222</v>
+        <v>0.381004739449322</v>
       </c>
       <c r="F10" t="n">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="G10" t="n">
-        <v>0.26941103492882945</v>
+        <v>0.269411034928829</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B11" t="s">
-        <v>40</v>
+        <v>17</v>
       </c>
       <c r="C11" t="n">
         <v>0.02</v>
       </c>
       <c r="D11" t="n">
-        <v>99.25341011543927</v>
+        <v>99.2534101154393</v>
       </c>
       <c r="E11" t="n">
-        <v>1.1697537426288915</v>
+        <v>1.16975374262889</v>
       </c>
       <c r="F11" t="n">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="G11" t="n">
-        <v>0.8271408037312326</v>
+        <v>0.827140803731233</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
+        <v>19</v>
+      </c>
+      <c r="B12" t="s">
         <v>17</v>
-      </c>
-      <c r="B12" t="s">
-        <v>40</v>
       </c>
       <c r="C12" t="n">
         <v>0.05</v>
       </c>
       <c r="D12" t="n">
-        <v>98.59589028398386</v>
+        <v>98.5958902839839</v>
       </c>
       <c r="E12" t="n">
-        <v>1.0175349775405849</v>
+        <v>1.01753497754058</v>
       </c>
       <c r="F12" t="n">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="G12" t="n">
-        <v>0.7195058827134488</v>
+        <v>0.719505882713449</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B13" t="s">
-        <v>40</v>
+        <v>17</v>
       </c>
       <c r="C13" t="n">
         <v>0.128</v>
       </c>
       <c r="D13" t="n">
-        <v>97.69956544656974</v>
+        <v>97.6995654465697</v>
       </c>
       <c r="E13" t="n">
-        <v>2.0133583026903183</v>
+        <v>2.01335830269032</v>
       </c>
       <c r="F13" t="n">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="G13" t="n">
-        <v>1.4236593087905616</v>
+        <v>1.42365930879056</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B14" t="s">
-        <v>40</v>
+        <v>17</v>
       </c>
       <c r="C14" t="n">
         <v>0.32</v>
       </c>
       <c r="D14" t="n">
-        <v>101.40216162681949</v>
+        <v>101.402161626819</v>
       </c>
       <c r="E14" t="n">
-        <v>0.29817383583328483</v>
+        <v>0.298173835833285</v>
       </c>
       <c r="F14" t="n">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="G14" t="n">
-        <v>0.21084074129012007</v>
+        <v>0.21084074129012</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>40</v>
+        <v>17</v>
       </c>
       <c r="C15" t="n">
         <v>0.8</v>
       </c>
       <c r="D15" t="n">
-        <v>105.48732870505435</v>
+        <v>105.487328705054</v>
       </c>
       <c r="E15" t="n">
-        <v>1.3822462478206536</v>
+        <v>1.38224624782065</v>
       </c>
       <c r="F15" t="n">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="G15" t="n">
-        <v>0.9773956951036452</v>
+        <v>0.977395695103645</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B16" t="s">
-        <v>40</v>
+        <v>17</v>
       </c>
       <c r="C16" t="n">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="D16" t="n">
-        <v>107.45866077727504</v>
+        <v>107.458660777275</v>
       </c>
       <c r="E16" t="n">
-        <v>2.0541942991720656</v>
+        <v>2.05419429917207</v>
       </c>
       <c r="F16" t="n">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="G16" t="n">
-        <v>1.452534718819315</v>
+        <v>1.45253471881931</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B17" t="s">
-        <v>40</v>
+        <v>17</v>
       </c>
       <c r="C17" t="n">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="D17" t="n">
-        <v>109.95573604733269</v>
+        <v>109.955736047333</v>
       </c>
       <c r="E17" t="n">
-        <v>0.7469470242139865</v>
+        <v>0.746947024213987</v>
       </c>
       <c r="F17" t="n">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="G17" t="n">
-        <v>0.5281713060088221</v>
+        <v>0.528171306008822</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B18" t="s">
-        <v>41</v>
+        <v>26</v>
       </c>
       <c r="C18" t="n">
         <v>0.008</v>
       </c>
       <c r="D18" t="n">
-        <v>100.00558588936156</v>
+        <v>100.005585889362</v>
       </c>
       <c r="E18" t="n">
-        <v>0.8535957503174565</v>
+        <v>0.853595750317456</v>
       </c>
       <c r="F18" t="n">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="G18" t="n">
-        <v>0.6035833434414926</v>
+        <v>0.603583343441493</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B19" t="s">
-        <v>41</v>
+        <v>26</v>
       </c>
       <c r="C19" t="n">
         <v>0.02</v>
       </c>
       <c r="D19" t="n">
-        <v>98.73335064289157</v>
+        <v>98.7333506428916</v>
       </c>
       <c r="E19" t="n">
-        <v>1.5348159741268679</v>
+        <v>1.53481597412687</v>
       </c>
       <c r="F19" t="n">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="G19" t="n">
-        <v>1.0852787831785449</v>
+        <v>1.08527878317854</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B20" t="s">
-        <v>41</v>
+        <v>26</v>
       </c>
       <c r="C20" t="n">
         <v>0.05</v>
       </c>
       <c r="D20" t="n">
-        <v>104.82587858616843</v>
+        <v>104.825878586168</v>
       </c>
       <c r="E20" t="n">
-        <v>2.232254198038634</v>
+        <v>2.23225419803863</v>
       </c>
       <c r="F20" t="n">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="G20" t="n">
-        <v>1.5784420807652564</v>
+        <v>1.57844208076526</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
+        <v>29</v>
+      </c>
+      <c r="B21" t="s">
         <v>26</v>
-      </c>
-      <c r="B21" t="s">
-        <v>41</v>
       </c>
       <c r="C21" t="n">
         <v>0.128</v>
       </c>
       <c r="D21" t="n">
-        <v>116.18740814118081</v>
+        <v>116.187408141181</v>
       </c>
       <c r="E21" t="n">
-        <v>8.819065927850678</v>
+        <v>8.81906592785068</v>
       </c>
       <c r="F21" t="n">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="G21" t="n">
-        <v>6.236021321314446</v>
+        <v>6.23602132131445</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B22" t="s">
-        <v>41</v>
+        <v>26</v>
       </c>
       <c r="C22" t="n">
         <v>0.32</v>
       </c>
       <c r="D22" t="n">
-        <v>135.49763496957476</v>
+        <v>135.497634969575</v>
       </c>
       <c r="E22" t="n">
-        <v>1.8246808853836978</v>
+        <v>1.8246808853837</v>
       </c>
       <c r="F22" t="n">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="G22" t="n">
-        <v>1.2902442275562862</v>
+        <v>1.29024422755629</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B23" t="s">
-        <v>41</v>
+        <v>26</v>
       </c>
       <c r="C23" t="n">
         <v>0.8</v>
       </c>
       <c r="D23" t="n">
-        <v>155.06156434746833</v>
+        <v>155.061564347468</v>
       </c>
       <c r="E23" t="n">
-        <v>1.055710255396212</v>
+        <v>1.05571025539621</v>
       </c>
       <c r="F23" t="n">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="G23" t="n">
-        <v>0.7464998805588435</v>
+        <v>0.746499880558844</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B24" t="s">
-        <v>41</v>
+        <v>26</v>
       </c>
       <c r="C24" t="n">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="D24" t="n">
-        <v>160.29110874461657</v>
+        <v>160.291108744617</v>
       </c>
       <c r="E24" t="n">
-        <v>4.869978877404488</v>
+        <v>4.86997887740449</v>
       </c>
       <c r="F24" t="n">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="G24" t="n">
-        <v>3.443595088447964</v>
+        <v>3.44359508844796</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B25" t="s">
-        <v>41</v>
+        <v>26</v>
       </c>
       <c r="C25" t="n">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="D25" t="n">
-        <v>170.4733177644827</v>
+        <v>170.473317764483</v>
       </c>
       <c r="E25" t="n">
-        <v>2.046243271666296</v>
+        <v>2.0462432716663</v>
       </c>
       <c r="F25" t="n">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="G25" t="n">
-        <v>1.4469124933525848</v>
+        <v>1.44691249335258</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B26" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="C26" t="n">
         <v>0.008</v>
       </c>
       <c r="D26" t="n">
-        <v>100.09591116188082</v>
+        <v>100.095911161881</v>
       </c>
       <c r="E26" t="n">
-        <v>1.0464952816566626</v>
+        <v>1.04649528165666</v>
       </c>
       <c r="F26" t="n">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="G26" t="n">
-        <v>0.7399839101391521</v>
+        <v>0.739983910139152</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="B27" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="C27" t="n">
         <v>0.02</v>
       </c>
       <c r="D27" t="n">
-        <v>100.98213579124592</v>
+        <v>100.982135791246</v>
       </c>
       <c r="E27" t="n">
-        <v>0.06706457003173946</v>
+        <v>0.0670645700317395</v>
       </c>
       <c r="F27" t="n">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="G27" t="n">
-        <v>0.047421812246803086</v>
+        <v>0.0474218122468031</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="B28" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="C28" t="n">
         <v>0.05</v>
       </c>
       <c r="D28" t="n">
-        <v>99.90105168380393</v>
+        <v>99.9010516838039</v>
       </c>
       <c r="E28" t="n">
-        <v>0.20061201103252405</v>
+        <v>0.200612011032524</v>
       </c>
       <c r="F28" t="n">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="G28" t="n">
-        <v>0.14185411338856824</v>
+        <v>0.141854113388568</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="B29" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="C29" t="n">
         <v>0.128</v>
       </c>
       <c r="D29" t="n">
-        <v>99.30714083099926</v>
+        <v>99.3071408309993</v>
       </c>
       <c r="E29" t="n">
-        <v>0.47945806035579513</v>
+        <v>0.479458060355795</v>
       </c>
       <c r="F29" t="n">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="G29" t="n">
-        <v>0.3390280457721317</v>
+        <v>0.339028045772132</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
+        <v>39</v>
+      </c>
+      <c r="B30" t="s">
         <v>35</v>
-      </c>
-      <c r="B30" t="s">
-        <v>42</v>
       </c>
       <c r="C30" t="n">
         <v>0.32</v>
       </c>
       <c r="D30" t="n">
-        <v>99.78895820864594</v>
+        <v>99.7889582086459</v>
       </c>
       <c r="E30" t="n">
-        <v>0.29039929372781953</v>
+        <v>0.29039929372782</v>
       </c>
       <c r="F30" t="n">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="G30" t="n">
-        <v>0.20534330984672522</v>
+        <v>0.205343309846725</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="B31" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="C31" t="n">
         <v>0.8</v>
       </c>
       <c r="D31" t="n">
-        <v>104.47366294679061</v>
+        <v>104.473662946791</v>
       </c>
       <c r="E31" t="n">
-        <v>0.5188118252659162</v>
+        <v>0.518811825265916</v>
       </c>
       <c r="F31" t="n">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="G31" t="n">
-        <v>0.3668553598052995</v>
+        <v>0.366855359805299</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="B32" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="C32" t="n">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="D32" t="n">
-        <v>116.22124192912199</v>
+        <v>116.221241929122</v>
       </c>
       <c r="E32" t="n">
-        <v>2.0607148016814127</v>
+        <v>2.06071480168141</v>
       </c>
       <c r="F32" t="n">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="G32" t="n">
-        <v>1.4571454103604182</v>
+        <v>1.45714541036042</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="B33" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="C33" t="n">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="D33" t="n">
-        <v>129.17916164058758</v>
+        <v>129.179161640588</v>
       </c>
       <c r="E33" t="n">
-        <v>0.7754404147026036</v>
+        <v>0.775440414702604</v>
       </c>
       <c r="F33" t="n">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="G33" t="n">
-        <v>0.5483191756423196</v>
+        <v>0.54831917564232</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
 </worksheet>
 </file>